--- a/q.xlsx
+++ b/q.xlsx
@@ -16,88 +16,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>财务1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>问题1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>财务2</t>
-  </si>
-  <si>
-    <t>财务3</t>
-  </si>
-  <si>
-    <t>财务4</t>
-  </si>
-  <si>
-    <t>财务5</t>
-  </si>
-  <si>
-    <t>财务6</t>
-  </si>
-  <si>
-    <t>财务7</t>
-  </si>
-  <si>
-    <t>财务8</t>
-  </si>
-  <si>
-    <t>财务9</t>
-  </si>
-  <si>
-    <t>财务10</t>
-  </si>
-  <si>
-    <t>财务11</t>
-  </si>
-  <si>
-    <t>财务12</t>
-  </si>
-  <si>
-    <t>财务13</t>
-  </si>
-  <si>
-    <t>财务14</t>
-  </si>
-  <si>
-    <t>财务15</t>
-  </si>
-  <si>
-    <t>财务16</t>
-  </si>
-  <si>
-    <t>财务17</t>
-  </si>
-  <si>
-    <t>财务18</t>
-  </si>
-  <si>
-    <t>财务19</t>
-  </si>
-  <si>
-    <t>财务20</t>
-  </si>
-  <si>
-    <t>财务21</t>
-  </si>
-  <si>
-    <t>财务22</t>
-  </si>
-  <si>
-    <t>财务23</t>
-  </si>
-  <si>
-    <t>财务24</t>
-  </si>
-  <si>
-    <t>财务25</t>
-  </si>
-  <si>
-    <t>财务26</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>问题2</t>
+  </si>
+  <si>
+    <t>问题3</t>
+  </si>
+  <si>
+    <t>问题4</t>
+  </si>
+  <si>
+    <t>问题5</t>
+  </si>
+  <si>
+    <t>问题6</t>
+  </si>
+  <si>
+    <t>question</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,17 +389,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -490,106 +430,6 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/q.xlsx
+++ b/q.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>问题1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,57 @@
   <si>
     <t>question</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题7</t>
+  </si>
+  <si>
+    <t>问题8</t>
+  </si>
+  <si>
+    <t>问题9</t>
+  </si>
+  <si>
+    <t>问题10</t>
+  </si>
+  <si>
+    <t>问题11</t>
+  </si>
+  <si>
+    <t>问题12</t>
+  </si>
+  <si>
+    <t>问题13</t>
+  </si>
+  <si>
+    <t>问题14</t>
+  </si>
+  <si>
+    <t>问题15</t>
+  </si>
+  <si>
+    <t>问题16</t>
+  </si>
+  <si>
+    <t>问题17</t>
+  </si>
+  <si>
+    <t>问题18</t>
+  </si>
+  <si>
+    <t>问题19</t>
+  </si>
+  <si>
+    <t>问题20</t>
+  </si>
+  <si>
+    <t>问题21</t>
+  </si>
+  <si>
+    <t>问题22</t>
+  </si>
+  <si>
+    <t>问题23</t>
   </si>
 </sst>
 </file>
@@ -389,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -430,6 +481,91 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
